--- a/data/scenario_data/reuse_scenarios.xlsx
+++ b/data/scenario_data/reuse_scenarios.xlsx
@@ -28,10 +28,10 @@
     <t>value</t>
   </si>
   <si>
-    <t>LFP reused</t>
+    <t>No reuse</t>
   </si>
   <si>
-    <t>Direct recycling</t>
+    <t>LFP reused</t>
   </si>
   <si>
     <t>All reused</t>
@@ -3911,7 +3911,7 @@
         <v>1950</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3928,7 +3928,7 @@
         <v>1951</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3945,7 +3945,7 @@
         <v>1952</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3962,7 +3962,7 @@
         <v>1953</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3979,7 +3979,7 @@
         <v>1954</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3996,7 +3996,7 @@
         <v>1955</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4013,7 +4013,7 @@
         <v>1956</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4030,7 +4030,7 @@
         <v>1957</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4047,7 +4047,7 @@
         <v>1958</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4064,7 +4064,7 @@
         <v>1959</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4081,7 +4081,7 @@
         <v>1960</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4098,7 +4098,7 @@
         <v>1961</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4115,7 +4115,7 @@
         <v>1962</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4132,7 +4132,7 @@
         <v>1963</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4149,7 +4149,7 @@
         <v>1964</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4166,7 +4166,7 @@
         <v>1965</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4183,7 +4183,7 @@
         <v>1966</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4200,7 +4200,7 @@
         <v>1967</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4217,7 +4217,7 @@
         <v>1968</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4234,7 +4234,7 @@
         <v>1969</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4251,7 +4251,7 @@
         <v>1970</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4268,7 +4268,7 @@
         <v>1971</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4285,7 +4285,7 @@
         <v>1972</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4302,7 +4302,7 @@
         <v>1973</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4319,7 +4319,7 @@
         <v>1974</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4336,7 +4336,7 @@
         <v>1975</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4353,7 +4353,7 @@
         <v>1976</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4370,7 +4370,7 @@
         <v>1977</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4387,7 +4387,7 @@
         <v>1978</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4404,7 +4404,7 @@
         <v>1979</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4421,7 +4421,7 @@
         <v>1980</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4438,7 +4438,7 @@
         <v>1981</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4455,7 +4455,7 @@
         <v>1982</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>1983</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4489,7 +4489,7 @@
         <v>1984</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4506,7 +4506,7 @@
         <v>1985</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4523,7 +4523,7 @@
         <v>1986</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4540,7 +4540,7 @@
         <v>1987</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4557,7 +4557,7 @@
         <v>1988</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4574,7 +4574,7 @@
         <v>1989</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4591,7 +4591,7 @@
         <v>1990</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4608,7 +4608,7 @@
         <v>1991</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4625,7 +4625,7 @@
         <v>1992</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4642,7 +4642,7 @@
         <v>1993</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4659,7 +4659,7 @@
         <v>1994</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4676,7 +4676,7 @@
         <v>1995</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4693,7 +4693,7 @@
         <v>1996</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4710,7 +4710,7 @@
         <v>1997</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4727,7 +4727,7 @@
         <v>1998</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4744,7 +4744,7 @@
         <v>1999</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4761,7 +4761,7 @@
         <v>2000</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4778,7 +4778,7 @@
         <v>2001</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4795,7 +4795,7 @@
         <v>2002</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4812,7 +4812,7 @@
         <v>2003</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4829,7 +4829,7 @@
         <v>2004</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4846,7 +4846,7 @@
         <v>2005</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4863,7 +4863,7 @@
         <v>2006</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4880,7 +4880,7 @@
         <v>2007</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4897,7 +4897,7 @@
         <v>2008</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4914,7 +4914,7 @@
         <v>2009</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4931,7 +4931,7 @@
         <v>2010</v>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4948,7 +4948,7 @@
         <v>2011</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4965,7 +4965,7 @@
         <v>2012</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4982,7 +4982,7 @@
         <v>2013</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4999,7 +4999,7 @@
         <v>2014</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5016,7 +5016,7 @@
         <v>2015</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5033,7 +5033,7 @@
         <v>2016</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5050,7 +5050,7 @@
         <v>2017</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5067,7 +5067,7 @@
         <v>2018</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5084,7 +5084,7 @@
         <v>2019</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5101,7 +5101,7 @@
         <v>2020</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5118,7 +5118,7 @@
         <v>2021</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5135,7 +5135,7 @@
         <v>2022</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5152,7 +5152,7 @@
         <v>2023</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5169,7 +5169,7 @@
         <v>2024</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5186,7 +5186,7 @@
         <v>2025</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5203,7 +5203,7 @@
         <v>2026</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5220,7 +5220,7 @@
         <v>2027</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5237,7 +5237,7 @@
         <v>2028</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5254,7 +5254,7 @@
         <v>2029</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5271,7 +5271,7 @@
         <v>2030</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5288,7 +5288,7 @@
         <v>2031</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5305,7 +5305,7 @@
         <v>2032</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5322,7 +5322,7 @@
         <v>2033</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5339,7 +5339,7 @@
         <v>2034</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5356,7 +5356,7 @@
         <v>2035</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5373,7 +5373,7 @@
         <v>2036</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5390,7 +5390,7 @@
         <v>2037</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5407,7 +5407,7 @@
         <v>2038</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5424,7 +5424,7 @@
         <v>2039</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5441,7 +5441,7 @@
         <v>2040</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5458,7 +5458,7 @@
         <v>2041</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5475,7 +5475,7 @@
         <v>2042</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5492,7 +5492,7 @@
         <v>2043</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5509,7 +5509,7 @@
         <v>2044</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5526,7 +5526,7 @@
         <v>2045</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5543,7 +5543,7 @@
         <v>2046</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5560,7 +5560,7 @@
         <v>2047</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5577,7 +5577,7 @@
         <v>2048</v>
       </c>
       <c r="E302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5594,7 +5594,7 @@
         <v>2049</v>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5611,7 +5611,7 @@
         <v>2050</v>
       </c>
       <c r="E304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -33100,7 +33100,7 @@
         <v>1950</v>
       </c>
       <c r="E1921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1922" spans="1:5">
@@ -33117,7 +33117,7 @@
         <v>1951</v>
       </c>
       <c r="E1922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1923" spans="1:5">
@@ -33134,7 +33134,7 @@
         <v>1952</v>
       </c>
       <c r="E1923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1924" spans="1:5">
@@ -33151,7 +33151,7 @@
         <v>1953</v>
       </c>
       <c r="E1924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1925" spans="1:5">
@@ -33168,7 +33168,7 @@
         <v>1954</v>
       </c>
       <c r="E1925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1926" spans="1:5">
@@ -33185,7 +33185,7 @@
         <v>1955</v>
       </c>
       <c r="E1926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1927" spans="1:5">
@@ -33202,7 +33202,7 @@
         <v>1956</v>
       </c>
       <c r="E1927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1928" spans="1:5">
@@ -33219,7 +33219,7 @@
         <v>1957</v>
       </c>
       <c r="E1928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1929" spans="1:5">
@@ -33236,7 +33236,7 @@
         <v>1958</v>
       </c>
       <c r="E1929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1930" spans="1:5">
@@ -33253,7 +33253,7 @@
         <v>1959</v>
       </c>
       <c r="E1930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1931" spans="1:5">
@@ -33270,7 +33270,7 @@
         <v>1960</v>
       </c>
       <c r="E1931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1932" spans="1:5">
@@ -33287,7 +33287,7 @@
         <v>1961</v>
       </c>
       <c r="E1932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1933" spans="1:5">
@@ -33304,7 +33304,7 @@
         <v>1962</v>
       </c>
       <c r="E1933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1934" spans="1:5">
@@ -33321,7 +33321,7 @@
         <v>1963</v>
       </c>
       <c r="E1934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1935" spans="1:5">
@@ -33338,7 +33338,7 @@
         <v>1964</v>
       </c>
       <c r="E1935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1936" spans="1:5">
@@ -33355,7 +33355,7 @@
         <v>1965</v>
       </c>
       <c r="E1936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1937" spans="1:5">
@@ -33372,7 +33372,7 @@
         <v>1966</v>
       </c>
       <c r="E1937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1938" spans="1:5">
@@ -33389,7 +33389,7 @@
         <v>1967</v>
       </c>
       <c r="E1938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1939" spans="1:5">
@@ -33406,7 +33406,7 @@
         <v>1968</v>
       </c>
       <c r="E1939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1940" spans="1:5">
@@ -33423,7 +33423,7 @@
         <v>1969</v>
       </c>
       <c r="E1940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1941" spans="1:5">
@@ -33440,7 +33440,7 @@
         <v>1970</v>
       </c>
       <c r="E1941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1942" spans="1:5">
@@ -33457,7 +33457,7 @@
         <v>1971</v>
       </c>
       <c r="E1942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1943" spans="1:5">
@@ -33474,7 +33474,7 @@
         <v>1972</v>
       </c>
       <c r="E1943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1944" spans="1:5">
@@ -33491,7 +33491,7 @@
         <v>1973</v>
       </c>
       <c r="E1944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1945" spans="1:5">
@@ -33508,7 +33508,7 @@
         <v>1974</v>
       </c>
       <c r="E1945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1946" spans="1:5">
@@ -33525,7 +33525,7 @@
         <v>1975</v>
       </c>
       <c r="E1946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1947" spans="1:5">
@@ -33542,7 +33542,7 @@
         <v>1976</v>
       </c>
       <c r="E1947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1948" spans="1:5">
@@ -33559,7 +33559,7 @@
         <v>1977</v>
       </c>
       <c r="E1948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1949" spans="1:5">
@@ -33576,7 +33576,7 @@
         <v>1978</v>
       </c>
       <c r="E1949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1950" spans="1:5">
@@ -33593,7 +33593,7 @@
         <v>1979</v>
       </c>
       <c r="E1950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1951" spans="1:5">
@@ -33610,7 +33610,7 @@
         <v>1980</v>
       </c>
       <c r="E1951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1952" spans="1:5">
@@ -33627,7 +33627,7 @@
         <v>1981</v>
       </c>
       <c r="E1952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1953" spans="1:5">
@@ -33644,7 +33644,7 @@
         <v>1982</v>
       </c>
       <c r="E1953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1954" spans="1:5">
@@ -33661,7 +33661,7 @@
         <v>1983</v>
       </c>
       <c r="E1954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1955" spans="1:5">
@@ -33678,7 +33678,7 @@
         <v>1984</v>
       </c>
       <c r="E1955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1956" spans="1:5">
@@ -33695,7 +33695,7 @@
         <v>1985</v>
       </c>
       <c r="E1956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1957" spans="1:5">
@@ -33712,7 +33712,7 @@
         <v>1986</v>
       </c>
       <c r="E1957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1958" spans="1:5">
@@ -33729,7 +33729,7 @@
         <v>1987</v>
       </c>
       <c r="E1958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1959" spans="1:5">
@@ -33746,7 +33746,7 @@
         <v>1988</v>
       </c>
       <c r="E1959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1960" spans="1:5">
@@ -33763,7 +33763,7 @@
         <v>1989</v>
       </c>
       <c r="E1960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1961" spans="1:5">
@@ -33780,7 +33780,7 @@
         <v>1990</v>
       </c>
       <c r="E1961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1962" spans="1:5">
@@ -33797,7 +33797,7 @@
         <v>1991</v>
       </c>
       <c r="E1962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1963" spans="1:5">
@@ -33814,7 +33814,7 @@
         <v>1992</v>
       </c>
       <c r="E1963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1964" spans="1:5">
@@ -33831,7 +33831,7 @@
         <v>1993</v>
       </c>
       <c r="E1964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1965" spans="1:5">
@@ -33848,7 +33848,7 @@
         <v>1994</v>
       </c>
       <c r="E1965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1966" spans="1:5">
@@ -33865,7 +33865,7 @@
         <v>1995</v>
       </c>
       <c r="E1966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1967" spans="1:5">
@@ -33882,7 +33882,7 @@
         <v>1996</v>
       </c>
       <c r="E1967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1968" spans="1:5">
@@ -33899,7 +33899,7 @@
         <v>1997</v>
       </c>
       <c r="E1968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1969" spans="1:5">
@@ -33916,7 +33916,7 @@
         <v>1998</v>
       </c>
       <c r="E1969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1970" spans="1:5">
@@ -33933,7 +33933,7 @@
         <v>1999</v>
       </c>
       <c r="E1970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1971" spans="1:5">
@@ -33950,7 +33950,7 @@
         <v>2000</v>
       </c>
       <c r="E1971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1972" spans="1:5">
@@ -33967,7 +33967,7 @@
         <v>2001</v>
       </c>
       <c r="E1972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1973" spans="1:5">
@@ -33984,7 +33984,7 @@
         <v>2002</v>
       </c>
       <c r="E1973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1974" spans="1:5">
@@ -34001,7 +34001,7 @@
         <v>2003</v>
       </c>
       <c r="E1974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1975" spans="1:5">
@@ -34018,7 +34018,7 @@
         <v>2004</v>
       </c>
       <c r="E1975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1976" spans="1:5">
@@ -34035,7 +34035,7 @@
         <v>2005</v>
       </c>
       <c r="E1976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1977" spans="1:5">
@@ -34052,7 +34052,7 @@
         <v>2006</v>
       </c>
       <c r="E1977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1978" spans="1:5">
@@ -34069,7 +34069,7 @@
         <v>2007</v>
       </c>
       <c r="E1978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1979" spans="1:5">
@@ -34086,7 +34086,7 @@
         <v>2008</v>
       </c>
       <c r="E1979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1980" spans="1:5">
@@ -34103,7 +34103,7 @@
         <v>2009</v>
       </c>
       <c r="E1980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1981" spans="1:5">
@@ -34120,7 +34120,7 @@
         <v>2010</v>
       </c>
       <c r="E1981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1982" spans="1:5">
@@ -34137,7 +34137,7 @@
         <v>2011</v>
       </c>
       <c r="E1982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1983" spans="1:5">
@@ -34154,7 +34154,7 @@
         <v>2012</v>
       </c>
       <c r="E1983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1984" spans="1:5">
@@ -34171,7 +34171,7 @@
         <v>2013</v>
       </c>
       <c r="E1984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -34188,7 +34188,7 @@
         <v>2014</v>
       </c>
       <c r="E1985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1986" spans="1:5">
@@ -34205,7 +34205,7 @@
         <v>2015</v>
       </c>
       <c r="E1986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1987" spans="1:5">
@@ -34222,7 +34222,7 @@
         <v>2016</v>
       </c>
       <c r="E1987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1988" spans="1:5">
@@ -34239,7 +34239,7 @@
         <v>2017</v>
       </c>
       <c r="E1988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1989" spans="1:5">
@@ -34256,7 +34256,7 @@
         <v>2018</v>
       </c>
       <c r="E1989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1990" spans="1:5">
@@ -34273,7 +34273,7 @@
         <v>2019</v>
       </c>
       <c r="E1990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1991" spans="1:5">
@@ -34290,7 +34290,7 @@
         <v>2020</v>
       </c>
       <c r="E1991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1992" spans="1:5">
@@ -34307,7 +34307,7 @@
         <v>2021</v>
       </c>
       <c r="E1992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1993" spans="1:5">
@@ -34324,7 +34324,7 @@
         <v>2022</v>
       </c>
       <c r="E1993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1994" spans="1:5">
@@ -34341,7 +34341,7 @@
         <v>2023</v>
       </c>
       <c r="E1994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1995" spans="1:5">
@@ -34358,7 +34358,7 @@
         <v>2024</v>
       </c>
       <c r="E1995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1996" spans="1:5">
@@ -34375,7 +34375,7 @@
         <v>2025</v>
       </c>
       <c r="E1996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1997" spans="1:5">
@@ -34392,7 +34392,7 @@
         <v>2026</v>
       </c>
       <c r="E1997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1998" spans="1:5">
@@ -34409,7 +34409,7 @@
         <v>2027</v>
       </c>
       <c r="E1998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1999" spans="1:5">
@@ -34426,7 +34426,7 @@
         <v>2028</v>
       </c>
       <c r="E1999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2000" spans="1:5">
@@ -34443,7 +34443,7 @@
         <v>2029</v>
       </c>
       <c r="E2000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2001" spans="1:5">
@@ -34460,7 +34460,7 @@
         <v>2030</v>
       </c>
       <c r="E2001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2002" spans="1:5">
@@ -34477,7 +34477,7 @@
         <v>2031</v>
       </c>
       <c r="E2002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2003" spans="1:5">
@@ -34494,7 +34494,7 @@
         <v>2032</v>
       </c>
       <c r="E2003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2004" spans="1:5">
@@ -34511,7 +34511,7 @@
         <v>2033</v>
       </c>
       <c r="E2004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2005" spans="1:5">
@@ -34528,7 +34528,7 @@
         <v>2034</v>
       </c>
       <c r="E2005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2006" spans="1:5">
@@ -34545,7 +34545,7 @@
         <v>2035</v>
       </c>
       <c r="E2006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2007" spans="1:5">
@@ -34562,7 +34562,7 @@
         <v>2036</v>
       </c>
       <c r="E2007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2008" spans="1:5">
@@ -34579,7 +34579,7 @@
         <v>2037</v>
       </c>
       <c r="E2008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2009" spans="1:5">
@@ -34596,7 +34596,7 @@
         <v>2038</v>
       </c>
       <c r="E2009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2010" spans="1:5">
@@ -34613,7 +34613,7 @@
         <v>2039</v>
       </c>
       <c r="E2010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2011" spans="1:5">
@@ -34630,7 +34630,7 @@
         <v>2040</v>
       </c>
       <c r="E2011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2012" spans="1:5">
@@ -34647,7 +34647,7 @@
         <v>2041</v>
       </c>
       <c r="E2012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2013" spans="1:5">
@@ -34664,7 +34664,7 @@
         <v>2042</v>
       </c>
       <c r="E2013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2014" spans="1:5">
@@ -34681,7 +34681,7 @@
         <v>2043</v>
       </c>
       <c r="E2014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2015" spans="1:5">
@@ -34698,7 +34698,7 @@
         <v>2044</v>
       </c>
       <c r="E2015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2016" spans="1:5">
@@ -34715,7 +34715,7 @@
         <v>2045</v>
       </c>
       <c r="E2016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2017" spans="1:5">
@@ -34732,7 +34732,7 @@
         <v>2046</v>
       </c>
       <c r="E2017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2018" spans="1:5">
@@ -34749,7 +34749,7 @@
         <v>2047</v>
       </c>
       <c r="E2018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2019" spans="1:5">
@@ -34766,7 +34766,7 @@
         <v>2048</v>
       </c>
       <c r="E2019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2020" spans="1:5">
@@ -34783,7 +34783,7 @@
         <v>2049</v>
       </c>
       <c r="E2020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2021" spans="1:5">
@@ -34800,7 +34800,7 @@
         <v>2050</v>
       </c>
       <c r="E2021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2022" spans="1:5">
